--- a/medicine/Psychotrope/Kidnapping_Mr._Heineken/Kidnapping_Mr._Heineken.xlsx
+++ b/medicine/Psychotrope/Kidnapping_Mr._Heineken/Kidnapping_Mr._Heineken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kidnapping Mr. Heineken est un film issu d'une coproduction internationale de Daniel Alfredson, sorti en 2015, s'inspirant d'un fait divers, l’enlèvement en novembre 1983 de Freddy Heineken (en), petit-fils du fondateur de la brasserie Heineken.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 9 novembre 1983, Henry « Freddy » Heineken est enlevé, avec son chauffeur Ab Doderer, par cinq malfrats. Ces derniers demandent une rançon de 35 millions de florins, soit la plus importante somme jamais réclamée à l'époque pour une vie humaine[1]…
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 9 novembre 1983, Henry « Freddy » Heineken est enlevé, avec son chauffeur Ab Doderer, par cinq malfrats. Ces derniers demandent une rançon de 35 millions de florins, soit la plus importante somme jamais réclamée à l'époque pour une vie humaine…
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre québécois : Heineken: l'enlèvement
@@ -565,7 +581,7 @@
 Format : couleur - 2.35:1
 Genre : thriller
 Durée : 95 minutes
-Dates de sortie[2] :
+Dates de sortie :
 États-Unis , Canada : 6 mars 2015
 France : 3 juin 2015 (sorti directement en DVD)
 Pays-Bas : 25 juin 2015</t>
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jim Sturgess : Cor Van Hout
 Sam Worthington : Willem Holleeder
@@ -636,11 +654,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Le scénario s'inspire du livre Kidnapping Freddy Heineken de Peter R. de Vries (best-seller aux Pays-Bas), lui-même basé sur l’histoire vraie de l’enlèvement de Henry « Freddy » Heineken, petit-fils de Gerard Adriaan Heineken, le fondateur de la marque de bière du même nom[1].
-Distribution des rôles
-Tournage
-Le tournage débute en octobre 2013 en Belgique, puis a lieu à Amsterdam et à La Nouvelle-Orléans[3],[1].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le scénario s'inspire du livre Kidnapping Freddy Heineken de Peter R. de Vries (best-seller aux Pays-Bas), lui-même basé sur l’histoire vraie de l’enlèvement de Henry « Freddy » Heineken, petit-fils de Gerard Adriaan Heineken, le fondateur de la marque de bière du même nom.
 </t>
         </is>
       </c>
@@ -666,10 +686,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute en octobre 2013 en Belgique, puis a lieu à Amsterdam et à La Nouvelle-Orléans,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kidnapping_Mr._Heineken</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kidnapping_Mr._Heineken</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de la 2e adaptation de ce fait divers après The Heineken Kidnapping (en) de Maarten Treurniet, sorti en 2011.
 </t>
